--- a/src/test/java/ExcelSheet/class.xlsx
+++ b/src/test/java/ExcelSheet/class.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\eclipse-workspace\AxisBank1\src\test\java\ExcelSheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\eclipse-workspace\MvnProjects\src\test\java\ExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12020" windowHeight="5790"/>
   </bookViews>
   <sheets>
-    <sheet name="s" sheetId="1" r:id="rId1"/>
+    <sheet name="New Datas" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -390,7 +390,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
